--- a/Data/ClientesFiltrados/Legal.xlsx
+++ b/Data/ClientesFiltrados/Legal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitedits-my.sharepoint.com/personal/alicia_lopez_united-its_com/Documents/Documentos/UiPath/MARK-DISPATCHER/Data/ClientesFiltrados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_53DAB0D9CF29279981266278A9D5ED86CFB2FE47" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5C66A5F-ADEC-4C16-A37E-575DE28D698F}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_53DAB0D9CF29279981266278A9D5ED86CFB2FE47" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{580958D0-1CBA-4F24-B7F3-34C9E77D8602}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,6 +503,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -792,11 +796,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="1" max="1" width="50.140625" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
